--- a/cleaning/FY2014-19 Datasets for ERS Publications.xlsx
+++ b/cleaning/FY2014-19 Datasets for ERS Publications.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OD\FED Research Outputs\Outputs by Datasets Used\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophierand/RCDatasets/cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EC0BE8-03C5-0F46-B81D-A39DCA92C01D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" tabRatio="862" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="15420" tabRatio="862" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FY14" sheetId="2" r:id="rId1"/>
@@ -38,17 +39,22 @@
     <sheet name="SCH MEALS DATA" sheetId="25" r:id="rId24"/>
     <sheet name="Other" sheetId="14" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="451">
   <si>
     <t>Author</t>
   </si>
@@ -1923,20 +1929,23 @@
     <t>▪IRI</t>
   </si>
   <si>
-    <t>▪TDLinx</t>
-  </si>
-  <si>
-    <t>Sets</t>
+    <t>IRI Infoscan</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>TDLinx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2007,6 +2016,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2016,7 +2031,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -2898,19 +2913,6 @@
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF00B0F0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
       <top style="thick">
         <color rgb="FF002060"/>
       </top>
@@ -2961,7 +2963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="382">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3760,30 +3762,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3895,37 +3873,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3935,8 +3902,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3946,7 +3911,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3956,16 +3920,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3981,10 +3944,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4008,13 +3967,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4022,6 +3981,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4308,7 +4294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -4318,28 +4304,28 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="288" t="s">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="373" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
       <c r="F1" s="38">
         <f>COUNT(C3:C11)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -4356,7 +4342,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -4373,7 +4359,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -4390,7 +4376,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -4407,7 +4393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -4424,7 +4410,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -4441,7 +4427,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -4458,7 +4444,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -4475,7 +4461,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -4492,7 +4478,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
@@ -4509,21 +4495,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
-    <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -4531,34 +4517,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4571,11 +4557,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="159" t="s">
         <v>3</v>
       </c>
@@ -4592,7 +4578,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>19</v>
       </c>
@@ -4609,7 +4595,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="164" t="s">
         <v>19</v>
       </c>
@@ -4626,7 +4612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="167" t="s">
         <v>19</v>
       </c>
@@ -4643,7 +4629,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="170" t="s">
         <v>82</v>
       </c>
@@ -4660,7 +4646,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="164" t="s">
         <v>51</v>
       </c>
@@ -4677,7 +4663,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="174" t="s">
         <v>275</v>
       </c>
@@ -4694,7 +4680,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>19</v>
       </c>
@@ -4711,7 +4697,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>19</v>
       </c>
@@ -4728,7 +4714,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
         <v>85</v>
       </c>
@@ -4745,7 +4731,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="164" t="s">
         <v>19</v>
       </c>
@@ -4762,7 +4748,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
         <v>19</v>
       </c>
@@ -4779,91 +4765,91 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="259"/>
       <c r="B15" s="259"/>
       <c r="C15" s="259"/>
       <c r="D15" s="259"/>
       <c r="E15" s="255"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="205"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="205"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
       <c r="E18" s="205"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="E19" s="205"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
       <c r="E20" s="205"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
       <c r="E21" s="205"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
       <c r="E22" s="205"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="205"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
       <c r="E24" s="205"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
       <c r="E25" s="205"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
       <c r="B26" s="51"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
       <c r="E26" s="205"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -4878,17 +4864,17 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
@@ -4896,34 +4882,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4936,11 +4922,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="381" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="362" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="157" t="s">
         <v>48</v>
       </c>
@@ -4953,105 +4939,105 @@
       <c r="D3" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="391"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="372"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="235"/>
       <c r="B4" s="235"/>
       <c r="C4" s="235"/>
       <c r="D4" s="235"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -5062,7 +5048,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5070,34 +5056,34 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5110,11 +5096,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="141" t="s">
         <v>7</v>
       </c>
@@ -5131,7 +5117,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="44" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="144" t="s">
         <v>38</v>
       </c>
@@ -5148,7 +5134,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="147" t="s">
         <v>77</v>
       </c>
@@ -5165,7 +5151,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="150" t="s">
         <v>38</v>
       </c>
@@ -5182,7 +5168,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="44" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="153" t="s">
         <v>38</v>
       </c>
@@ -5199,7 +5185,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="44" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="153" t="s">
         <v>336</v>
       </c>
@@ -5216,98 +5202,98 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="259"/>
       <c r="B9" s="259"/>
       <c r="C9" s="259"/>
       <c r="D9" s="259"/>
       <c r="E9" s="255"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="205"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="205"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="205"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="205"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
       <c r="E14" s="205"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
       <c r="E15" s="205"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="205"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="205"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
       <c r="E18" s="205"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="E19" s="205"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
       <c r="E20" s="205"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
       <c r="E21" s="205"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -5322,12 +5308,12 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -5335,34 +5321,34 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5375,11 +5361,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="381" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="44" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="44" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
         <v>16</v>
       </c>
@@ -5392,9 +5378,9 @@
       <c r="D3" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="388"/>
-    </row>
-    <row r="4" spans="1:5" s="45" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="369"/>
+    </row>
+    <row r="4" spans="1:5" s="45" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="137" t="s">
         <v>78</v>
       </c>
@@ -5407,9 +5393,9 @@
       <c r="D4" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="389"/>
-    </row>
-    <row r="5" spans="1:5" s="44" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="370"/>
+    </row>
+    <row r="5" spans="1:5" s="44" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>165</v>
       </c>
@@ -5422,9 +5408,9 @@
       <c r="D5" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="368"/>
-    </row>
-    <row r="6" spans="1:5" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="351"/>
+    </row>
+    <row r="6" spans="1:5" s="44" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="139" t="s">
         <v>78</v>
       </c>
@@ -5437,99 +5423,99 @@
       <c r="D6" s="140" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="390"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="371"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="234"/>
       <c r="B7" s="234"/>
       <c r="C7" s="234"/>
       <c r="D7" s="234"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -5543,9 +5529,9 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -5553,34 +5539,34 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5593,11 +5579,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="381" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
@@ -5610,9 +5596,9 @@
       <c r="D3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="383"/>
-    </row>
-    <row r="4" spans="1:5" s="44" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="364"/>
+    </row>
+    <row r="4" spans="1:5" s="44" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135" t="s">
         <v>68</v>
       </c>
@@ -5625,117 +5611,117 @@
       <c r="D4" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="387"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="368"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="211"/>
       <c r="B5" s="211"/>
       <c r="C5" s="211"/>
       <c r="D5" s="211"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="51"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
       <c r="B23" s="51"/>
       <c r="C23" s="51"/>
@@ -5746,8 +5732,8 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5755,34 +5741,34 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5795,11 +5781,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="178" t="s">
         <v>78</v>
       </c>
@@ -5816,7 +5802,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="231" t="s">
         <v>78</v>
       </c>
@@ -5833,63 +5819,63 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="227"/>
       <c r="B5" s="227"/>
       <c r="C5" s="227"/>
       <c r="D5" s="227"/>
       <c r="E5" s="229"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="205"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
       <c r="E7" s="205"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="205"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="205"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="205"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="205"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="205"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
@@ -5901,8 +5887,8 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5910,34 +5896,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5950,11 +5936,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
@@ -5971,7 +5957,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>10</v>
       </c>
@@ -5988,7 +5974,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="57" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="126" t="s">
         <v>32</v>
       </c>
@@ -6005,7 +5991,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -6022,7 +6008,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>57</v>
       </c>
@@ -6039,7 +6025,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="129" t="s">
         <v>38</v>
       </c>
@@ -6056,7 +6042,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="126" t="s">
         <v>60</v>
       </c>
@@ -6073,7 +6059,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>240</v>
       </c>
@@ -6090,7 +6076,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="274" t="s">
         <v>10</v>
       </c>
@@ -6107,7 +6093,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="277" t="s">
         <v>377</v>
       </c>
@@ -6124,14 +6110,14 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="322" t="s">
+    <row r="13" spans="1:5" ht="29" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="323" t="s">
+      <c r="B13" s="315" t="s">
         <v>433</v>
       </c>
-      <c r="C13" s="322" t="s">
+      <c r="C13" s="314" t="s">
         <v>395</v>
       </c>
       <c r="D13" s="276" t="s">
@@ -6141,8 +6127,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="298" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="290" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="47" t="s">
@@ -6158,45 +6144,45 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="324" t="s">
+    <row r="15" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="316" t="s">
         <v>428</v>
       </c>
-      <c r="B15" s="325" t="s">
+      <c r="B15" s="317" t="s">
         <v>433</v>
       </c>
-      <c r="C15" s="324" t="s">
+      <c r="C15" s="316" t="s">
         <v>419</v>
       </c>
-      <c r="D15" s="326" t="s">
+      <c r="D15" s="318" t="s">
         <v>420</v>
       </c>
-      <c r="E15" s="327" t="s">
+      <c r="E15" s="319" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A16" s="259"/>
       <c r="B16" s="259"/>
       <c r="C16" s="259"/>
       <c r="D16" s="259"/>
       <c r="E16" s="255"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="205"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
       <c r="E18" s="205"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
@@ -6208,19 +6194,19 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D12" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -6228,34 +6214,34 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E3" sqref="E3:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:16384" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:16384" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:16384" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6268,11 +6254,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16384" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16384" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="178" t="s">
         <v>51</v>
       </c>
@@ -6285,24 +6271,28 @@
       <c r="D3" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="386"/>
-    </row>
-    <row r="4" spans="1:16384" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="342" t="s">
+      <c r="E3" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="342" t="s">
+      <c r="B4" s="331" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="342" t="s">
+      <c r="C4" s="331" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="348" t="s">
+      <c r="D4" s="335" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="344"/>
-    </row>
-    <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="E4" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -6315,39 +6305,45 @@
       <c r="D5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="205"/>
-    </row>
-    <row r="6" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="349" t="s">
+      <c r="E5" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="336" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="349" t="s">
+      <c r="B6" s="336" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="349" t="s">
+      <c r="C6" s="336" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="350" t="s">
+      <c r="D6" s="337" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="347"/>
-    </row>
-    <row r="7" spans="1:16384" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="331" t="s">
+      <c r="E6" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="323" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="336" t="s">
+      <c r="B7" s="327" t="s">
         <v>233</v>
       </c>
-      <c r="C7" s="342" t="s">
+      <c r="C7" s="331" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="343" t="s">
+      <c r="D7" s="332" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="344"/>
-    </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="E7" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>258</v>
       </c>
@@ -6360,39 +6356,45 @@
       <c r="D8" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="205"/>
-    </row>
-    <row r="9" spans="1:16384" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="345" t="s">
+      <c r="E8" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16384" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="333" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="345" t="s">
+      <c r="B9" s="333" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="345" t="s">
+      <c r="C9" s="333" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="346" t="s">
+      <c r="D9" s="334" t="s">
         <v>257</v>
       </c>
-      <c r="E9" s="347"/>
-    </row>
-    <row r="10" spans="1:16384" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="336" t="s">
+      <c r="E9" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="327" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="329" t="s">
+      <c r="B10" s="321" t="s">
         <v>330</v>
       </c>
-      <c r="C10" s="336" t="s">
+      <c r="C10" s="327" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="337" t="s">
+      <c r="D10" s="328" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="338"/>
-    </row>
-    <row r="11" spans="1:16384" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E10" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16384" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>321</v>
       </c>
@@ -6405,9 +6407,11 @@
       <c r="D11" s="201" t="s">
         <v>323</v>
       </c>
-      <c r="E11" s="205"/>
-    </row>
-    <row r="12" spans="1:16384" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E11" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16384" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>321</v>
       </c>
@@ -6420,9 +6424,11 @@
       <c r="D12" s="201" t="s">
         <v>329</v>
       </c>
-      <c r="E12" s="205"/>
-    </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="E12" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>35</v>
       </c>
@@ -6435,7 +6441,9 @@
       <c r="D13" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="E13" s="49"/>
+      <c r="E13" s="367" t="s">
+        <v>187</v>
+      </c>
       <c r="F13" s="226"/>
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
@@ -22816,7 +22824,7 @@
       <c r="XFC13" s="49"/>
       <c r="XFD13" s="49"/>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>340</v>
       </c>
@@ -22829,9 +22837,11 @@
       <c r="D14" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="E14" s="205"/>
-    </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
+      <c r="E14" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>374</v>
       </c>
@@ -22844,66 +22854,74 @@
       <c r="D15" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="E15" s="205"/>
-    </row>
-    <row r="16" spans="1:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="339" t="s">
+      <c r="E15" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16384" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="329" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="333" t="s">
+      <c r="B16" s="325" t="s">
         <v>330</v>
       </c>
-      <c r="C16" s="339" t="s">
+      <c r="C16" s="329" t="s">
         <v>345</v>
       </c>
-      <c r="D16" s="340" t="s">
+      <c r="D16" s="330" t="s">
         <v>346</v>
       </c>
-      <c r="E16" s="341"/>
-    </row>
-    <row r="17" spans="1:5" ht="27" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="328" t="s">
+      <c r="E16" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="320" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="329" t="s">
+      <c r="B17" s="321" t="s">
         <v>433</v>
       </c>
-      <c r="C17" s="328" t="s">
+      <c r="C17" s="320" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="330" t="s">
+      <c r="D17" s="322" t="s">
         <v>426</v>
       </c>
-      <c r="E17" s="331"/>
-    </row>
-    <row r="18" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="332" t="s">
+      <c r="E17" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="324" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="333" t="s">
+      <c r="B18" s="325" t="s">
         <v>433</v>
       </c>
-      <c r="C18" s="332" t="s">
+      <c r="C18" s="324" t="s">
         <v>425</v>
       </c>
-      <c r="D18" s="334" t="s">
+      <c r="D18" s="326" t="s">
         <v>427</v>
       </c>
-      <c r="E18" s="335"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="367" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="259"/>
       <c r="B19" s="259"/>
       <c r="C19" s="259"/>
       <c r="D19" s="259"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -22914,19 +22932,19 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D12" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D14" r:id="rId10"/>
-    <hyperlink ref="D16" r:id="rId11"/>
-    <hyperlink ref="D17" r:id="rId12"/>
-    <hyperlink ref="D18" r:id="rId13"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
+    <hyperlink ref="D12" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
+    <hyperlink ref="D16" r:id="rId11" xr:uid="{00000000-0004-0000-1000-00000A000000}"/>
+    <hyperlink ref="D17" r:id="rId12" xr:uid="{00000000-0004-0000-1000-00000B000000}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{00000000-0004-0000-1000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -22934,34 +22952,34 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E3" sqref="E3:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="106.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="106.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -22974,11 +22992,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="381" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="362" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="178" t="s">
         <v>65</v>
       </c>
@@ -22991,9 +23009,11 @@
       <c r="D3" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="385"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="217" t="s">
         <v>35</v>
       </c>
@@ -23006,9 +23026,11 @@
       <c r="D4" s="218" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="352"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
@@ -23021,9 +23043,11 @@
       <c r="D5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="205"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>81</v>
       </c>
@@ -23036,9 +23060,11 @@
       <c r="D6" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="219" t="s">
         <v>79</v>
       </c>
@@ -23051,9 +23077,11 @@
       <c r="D7" s="220" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="351"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="222" t="s">
         <v>7</v>
       </c>
@@ -23066,9 +23094,11 @@
       <c r="D8" s="223" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="352"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>79</v>
       </c>
@@ -23081,9 +23111,11 @@
       <c r="D9" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="E9" s="205"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="219" t="s">
         <v>244</v>
       </c>
@@ -23096,9 +23128,11 @@
       <c r="D10" s="225" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="351"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="270" t="s">
         <v>303</v>
       </c>
@@ -23111,9 +23145,11 @@
       <c r="D11" s="272" t="s">
         <v>307</v>
       </c>
-      <c r="E11" s="352"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>244</v>
       </c>
@@ -23126,9 +23162,11 @@
       <c r="D12" s="55" t="s">
         <v>314</v>
       </c>
-      <c r="E12" s="205"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="219" t="s">
         <v>374</v>
       </c>
@@ -23141,26 +23179,28 @@
       <c r="D13" s="220" t="s">
         <v>365</v>
       </c>
-      <c r="E13" s="351"/>
-    </row>
-    <row r="14" spans="1:5" s="44" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="302" t="s">
+      <c r="E13" s="366" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="44" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="294" t="s">
         <v>383</v>
       </c>
       <c r="B14" s="222" t="s">
         <v>433</v>
       </c>
-      <c r="C14" s="302" t="s">
+      <c r="C14" s="294" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="303" t="s">
+      <c r="D14" s="295" t="s">
         <v>388</v>
       </c>
       <c r="E14" s="222" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>83</v>
       </c>
@@ -23170,31 +23210,31 @@
       <c r="C15" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="D15" s="301" t="s">
+      <c r="D15" s="293" t="s">
         <v>407</v>
       </c>
       <c r="E15" s="49" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="353" t="s">
+    <row r="16" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="338" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="224" t="s">
         <v>433</v>
       </c>
-      <c r="C16" s="353" t="s">
+      <c r="C16" s="338" t="s">
         <v>424</v>
       </c>
-      <c r="D16" s="354" t="s">
+      <c r="D16" s="339" t="s">
         <v>426</v>
       </c>
-      <c r="E16" s="355" t="s">
+      <c r="E16" s="340" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A3:D7">
     <sortCondition ref="B3:B7"/>
@@ -23203,18 +23243,18 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D14" r:id="rId10"/>
-    <hyperlink ref="D15" r:id="rId11"/>
-    <hyperlink ref="D16" r:id="rId12"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-1100-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-1100-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-1100-000008000000}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{00000000-0004-0000-1100-000009000000}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{00000000-0004-0000-1100-00000A000000}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{00000000-0004-0000-1100-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -23222,34 +23262,34 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -23263,10 +23303,10 @@
         <v>125</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>22</v>
       </c>
@@ -23283,7 +23323,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
         <v>13</v>
       </c>
@@ -23300,7 +23340,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="106" t="s">
         <v>35</v>
       </c>
@@ -23317,7 +23357,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103" t="s">
         <v>78</v>
       </c>
@@ -23334,7 +23374,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="110" t="s">
         <v>19</v>
       </c>
@@ -23351,7 +23391,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="267" t="s">
         <v>374</v>
       </c>
@@ -23368,41 +23408,41 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="304" t="s">
+    <row r="9" spans="1:5" ht="30" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="296" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="305" t="s">
+      <c r="B9" s="297" t="s">
         <v>433</v>
       </c>
-      <c r="C9" s="304" t="s">
+      <c r="C9" s="296" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="306" t="s">
+      <c r="D9" s="298" t="s">
         <v>390</v>
       </c>
-      <c r="E9" s="307" t="s">
+      <c r="E9" s="299" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="308" t="s">
+    <row r="10" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="300" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="309" t="s">
+      <c r="B10" s="301" t="s">
         <v>433</v>
       </c>
-      <c r="C10" s="308" t="s">
+      <c r="C10" s="300" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="310" t="s">
+      <c r="D10" s="302" t="s">
         <v>418</v>
       </c>
-      <c r="E10" s="311" t="s">
+      <c r="E10" s="303" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A3:E6">
     <sortCondition ref="B3:B6"/>
@@ -23411,13 +23451,13 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-1200-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-1200-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-1200-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -23425,7 +23465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -23435,29 +23475,29 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
       <c r="F1">
         <f>COUNT(C3:C19)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -23474,7 +23514,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>29</v>
       </c>
@@ -23491,7 +23531,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="126" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -23508,7 +23548,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -23525,7 +23565,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>38</v>
       </c>
@@ -23542,7 +23582,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -23559,7 +23599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -23576,7 +23616,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -23593,7 +23633,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
@@ -23610,7 +23650,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>175</v>
       </c>
@@ -23627,7 +23667,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -23644,7 +23684,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>54</v>
       </c>
@@ -23661,7 +23701,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>57</v>
       </c>
@@ -23678,7 +23718,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
@@ -23695,7 +23735,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="56" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>3</v>
       </c>
@@ -23712,7 +23752,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>65</v>
       </c>
@@ -23729,7 +23769,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
@@ -23746,7 +23786,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>68</v>
       </c>
@@ -23763,29 +23803,29 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D12" r:id="rId5"/>
-    <hyperlink ref="D13" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D14" r:id="rId8"/>
-    <hyperlink ref="D15" r:id="rId9"/>
-    <hyperlink ref="D16" r:id="rId10"/>
-    <hyperlink ref="D17" r:id="rId11"/>
-    <hyperlink ref="D19" r:id="rId12"/>
-    <hyperlink ref="D5" r:id="rId13"/>
-    <hyperlink ref="D4" r:id="rId14"/>
-    <hyperlink ref="D9" r:id="rId15"/>
-    <hyperlink ref="D18" r:id="rId16"/>
-    <hyperlink ref="D11" r:id="rId17"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D4" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
@@ -23793,34 +23833,34 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -23833,11 +23873,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="381" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>10</v>
       </c>
@@ -23854,7 +23894,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
         <v>68</v>
       </c>
@@ -23871,7 +23911,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
@@ -23888,7 +23928,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>83</v>
       </c>
@@ -23905,98 +23945,98 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="215"/>
       <c r="B7" s="215"/>
       <c r="C7" s="215"/>
       <c r="D7" s="215"/>
       <c r="E7" s="216"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="205"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="205"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="205"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="205"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="205"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="205"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
       <c r="E14" s="205"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
       <c r="E15" s="205"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="205"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="51"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="205"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
       <c r="E18" s="205"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="51"/>
       <c r="B19" s="51"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="E19" s="205"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="51"/>
       <c r="B20" s="51"/>
       <c r="C20" s="51"/>
@@ -24011,10 +24051,10 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-1300-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-1300-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-1300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -24022,51 +24062,51 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="382" t="s">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="363" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="382" t="s">
+      <c r="B2" s="363" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="382" t="s">
+      <c r="C2" s="363" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="382" t="s">
+      <c r="D2" s="363" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="381" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
@@ -24079,9 +24119,9 @@
       <c r="D3" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="383"/>
-    </row>
-    <row r="4" spans="1:5" s="44" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="364"/>
+    </row>
+    <row r="4" spans="1:5" s="44" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
         <v>84</v>
       </c>
@@ -24094,9 +24134,9 @@
       <c r="D4" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="384"/>
-    </row>
-    <row r="5" spans="1:5" s="44" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="365"/>
+    </row>
+    <row r="5" spans="1:5" s="44" customFormat="1" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -24107,8 +24147,8 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -24116,37 +24156,37 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="295" t="s">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="380" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
+      <c r="B1" s="380"/>
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
       <c r="E1" s="38">
         <f>COUNT(#REF!)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -24160,10 +24200,10 @@
         <v>125</v>
       </c>
       <c r="E2" s="381" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>54</v>
       </c>
@@ -24173,12 +24213,14 @@
       <c r="C3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="358" t="s">
+      <c r="D3" s="342" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="361"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="344" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -24188,12 +24230,14 @@
       <c r="C4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="359" t="s">
+      <c r="D4" s="343" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="360"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="344" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="213" t="s">
         <v>10</v>
       </c>
@@ -24206,9 +24250,11 @@
       <c r="D5" s="264" t="s">
         <v>318</v>
       </c>
-      <c r="E5" s="356"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E5" s="344" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>327</v>
       </c>
@@ -24221,9 +24267,11 @@
       <c r="D6" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="E6" s="205"/>
-    </row>
-    <row r="7" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="344" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="265" t="s">
         <v>54</v>
       </c>
@@ -24236,19 +24284,19 @@
       <c r="D7" s="266" t="s">
         <v>354</v>
       </c>
-      <c r="E7" s="357" t="s">
+      <c r="E7" s="341" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -24256,34 +24304,34 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -24297,10 +24345,10 @@
         <v>125</v>
       </c>
       <c r="E2" s="381" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
         <v>68</v>
       </c>
@@ -24313,9 +24361,11 @@
       <c r="D3" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="373"/>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="354" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="91" t="s">
         <v>159</v>
       </c>
@@ -24328,66 +24378,72 @@
       <c r="D4" s="93" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="372"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="362" t="s">
+      <c r="E4" s="354" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="345" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="363" t="s">
+      <c r="B5" s="346" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="364" t="s">
+      <c r="C5" s="347" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="365" t="s">
+      <c r="D5" s="348" t="s">
         <v>308</v>
       </c>
-      <c r="E5" s="372"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="366" t="s">
+      <c r="E5" s="354" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="349" t="s">
         <v>383</v>
       </c>
-      <c r="B6" s="363" t="s">
+      <c r="B6" s="346" t="s">
         <v>433</v>
       </c>
-      <c r="C6" s="366" t="s">
+      <c r="C6" s="349" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="367" t="s">
+      <c r="D6" s="350" t="s">
         <v>388</v>
       </c>
-      <c r="E6" s="368"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="369" t="s">
+      <c r="E6" s="354" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="352" t="s">
         <v>404</v>
       </c>
-      <c r="B7" s="369" t="s">
+      <c r="B7" s="352" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="369" t="s">
+      <c r="C7" s="352" t="s">
         <v>406</v>
       </c>
-      <c r="D7" s="370" t="s">
+      <c r="D7" s="353" t="s">
         <v>408</v>
       </c>
-      <c r="E7" s="371" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E7" s="354" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-1600-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-1600-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-1600-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-1600-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -24395,34 +24451,34 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -24435,11 +24491,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="44" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="381" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="44" customFormat="1" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
         <v>60</v>
       </c>
@@ -24456,7 +24512,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="44" customFormat="1" ht="52.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="44" customFormat="1" ht="58" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="129" t="s">
         <v>38</v>
       </c>
@@ -24473,84 +24529,84 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="211"/>
       <c r="B5" s="211"/>
       <c r="C5" s="211"/>
       <c r="D5" s="211"/>
       <c r="E5" s="212"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="51"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
       <c r="E6" s="205"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
       <c r="E7" s="205"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="205"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="205"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="205"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="205"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="205"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="205"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
       <c r="E14" s="205"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
       <c r="E15" s="205"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -24562,8 +24618,8 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -24571,35 +24627,35 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="83.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="83.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -24610,11 +24666,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="381" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="178" t="s">
         <v>10</v>
       </c>
@@ -24631,7 +24687,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="57" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="207" t="s">
         <v>32</v>
       </c>
@@ -24648,7 +24704,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -24665,7 +24721,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>48</v>
       </c>
@@ -24682,7 +24738,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>57</v>
       </c>
@@ -24699,7 +24755,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="56" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
@@ -24716,7 +24772,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
@@ -24733,7 +24789,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="56" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>175</v>
       </c>
@@ -24750,7 +24806,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>65</v>
       </c>
@@ -24767,7 +24823,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>77</v>
       </c>
@@ -24784,7 +24840,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>80</v>
       </c>
@@ -24801,7 +24857,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>38</v>
       </c>
@@ -24818,7 +24874,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="29" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>163</v>
       </c>
@@ -24835,7 +24891,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
         <v>22</v>
       </c>
@@ -24852,7 +24908,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
         <v>85</v>
       </c>
@@ -24869,7 +24925,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="47" t="s">
         <v>38</v>
       </c>
@@ -24886,7 +24942,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A19" s="47" t="s">
         <v>3</v>
       </c>
@@ -24903,7 +24959,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>244</v>
       </c>
@@ -24920,7 +24976,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="82" t="s">
         <v>159</v>
       </c>
@@ -24937,7 +24993,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="262" t="s">
         <v>65</v>
       </c>
@@ -24954,7 +25010,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>321</v>
       </c>
@@ -24971,7 +25027,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>340</v>
       </c>
@@ -24988,7 +25044,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>348</v>
       </c>
@@ -25005,7 +25061,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>377</v>
       </c>
@@ -25022,7 +25078,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
         <v>374</v>
       </c>
@@ -25039,24 +25095,24 @@
         <v>379</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="39" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="375" t="s">
+    <row r="28" spans="1:5" ht="30" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="356" t="s">
         <v>383</v>
       </c>
-      <c r="B28" s="375" t="s">
+      <c r="B28" s="356" t="s">
         <v>433</v>
       </c>
-      <c r="C28" s="375" t="s">
+      <c r="C28" s="356" t="s">
         <v>385</v>
       </c>
-      <c r="D28" s="376" t="s">
+      <c r="D28" s="357" t="s">
         <v>388</v>
       </c>
-      <c r="E28" s="377" t="s">
+      <c r="E28" s="358" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
         <v>38</v>
       </c>
@@ -25073,7 +25129,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="56" x14ac:dyDescent="0.2">
       <c r="A30" s="41" t="s">
         <v>10</v>
       </c>
@@ -25090,7 +25146,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="47" t="s">
         <v>83</v>
       </c>
@@ -25100,14 +25156,14 @@
       <c r="C31" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="D31" s="301" t="s">
+      <c r="D31" s="293" t="s">
         <v>407</v>
       </c>
       <c r="E31" s="49" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="374" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="355" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
         <v>404</v>
       </c>
@@ -25124,24 +25180,24 @@
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="298" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="290" t="s">
         <v>244</v>
       </c>
       <c r="B33" s="47" t="s">
         <v>433</v>
       </c>
-      <c r="C33" s="298" t="s">
+      <c r="C33" s="290" t="s">
         <v>413</v>
       </c>
-      <c r="D33" s="296" t="s">
+      <c r="D33" s="288" t="s">
         <v>414</v>
       </c>
       <c r="E33" s="49" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.2">
       <c r="A34" s="162" t="s">
         <v>428</v>
       </c>
@@ -25158,58 +25214,58 @@
         <v>444</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="378" t="s">
+    <row r="35" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="359" t="s">
         <v>421</v>
       </c>
       <c r="B35" s="82" t="s">
         <v>433</v>
       </c>
-      <c r="C35" s="379" t="s">
+      <c r="C35" s="360" t="s">
         <v>422</v>
       </c>
-      <c r="D35" s="380" t="s">
+      <c r="D35" s="361" t="s">
         <v>423</v>
       </c>
       <c r="E35" s="81" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D11" r:id="rId7"/>
-    <hyperlink ref="D14" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D15" r:id="rId11"/>
-    <hyperlink ref="D16" r:id="rId12"/>
-    <hyperlink ref="D17" r:id="rId13"/>
-    <hyperlink ref="D18" r:id="rId14"/>
-    <hyperlink ref="D19" r:id="rId15"/>
-    <hyperlink ref="D20" r:id="rId16"/>
-    <hyperlink ref="D21" r:id="rId17"/>
-    <hyperlink ref="D22" r:id="rId18"/>
-    <hyperlink ref="D24" r:id="rId19"/>
-    <hyperlink ref="D25" r:id="rId20"/>
-    <hyperlink ref="D26" r:id="rId21"/>
-    <hyperlink ref="D28" r:id="rId22"/>
-    <hyperlink ref="D29" r:id="rId23"/>
-    <hyperlink ref="D30" r:id="rId24"/>
-    <hyperlink ref="D31" r:id="rId25"/>
-    <hyperlink ref="D32" r:id="rId26"/>
-    <hyperlink ref="D33" r:id="rId27"/>
-    <hyperlink ref="D34" r:id="rId28"/>
-    <hyperlink ref="D35" r:id="rId29"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{00000000-0004-0000-1800-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-1800-000003000000}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{00000000-0004-0000-1800-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-1800-000005000000}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{00000000-0004-0000-1800-000006000000}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{00000000-0004-0000-1800-000007000000}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-1800-000008000000}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-1800-000009000000}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{00000000-0004-0000-1800-00000A000000}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{00000000-0004-0000-1800-00000B000000}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{00000000-0004-0000-1800-00000C000000}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{00000000-0004-0000-1800-00000D000000}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{00000000-0004-0000-1800-00000E000000}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{00000000-0004-0000-1800-00000F000000}"/>
+    <hyperlink ref="D21" r:id="rId17" xr:uid="{00000000-0004-0000-1800-000010000000}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{00000000-0004-0000-1800-000011000000}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{00000000-0004-0000-1800-000012000000}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{00000000-0004-0000-1800-000013000000}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{00000000-0004-0000-1800-000014000000}"/>
+    <hyperlink ref="D28" r:id="rId22" xr:uid="{00000000-0004-0000-1800-000015000000}"/>
+    <hyperlink ref="D29" r:id="rId23" xr:uid="{00000000-0004-0000-1800-000016000000}"/>
+    <hyperlink ref="D30" r:id="rId24" xr:uid="{00000000-0004-0000-1800-000017000000}"/>
+    <hyperlink ref="D31" r:id="rId25" xr:uid="{00000000-0004-0000-1800-000018000000}"/>
+    <hyperlink ref="D32" r:id="rId26" xr:uid="{00000000-0004-0000-1800-000019000000}"/>
+    <hyperlink ref="D33" r:id="rId27" xr:uid="{00000000-0004-0000-1800-00001A000000}"/>
+    <hyperlink ref="D34" r:id="rId28" xr:uid="{00000000-0004-0000-1800-00001B000000}"/>
+    <hyperlink ref="D35" r:id="rId29" xr:uid="{00000000-0004-0000-1800-00001C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId30"/>
@@ -25217,7 +25273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -25227,29 +25283,29 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="377" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="379"/>
       <c r="F1" s="38">
         <f>COUNT(C3:C18)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -25266,7 +25322,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="70" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>38</v>
       </c>
@@ -25283,7 +25339,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -25300,7 +25356,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -25317,7 +25373,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
@@ -25334,7 +25390,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
@@ -25351,7 +25407,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
@@ -25368,7 +25424,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
@@ -25385,7 +25441,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -25402,7 +25458,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>82</v>
       </c>
@@ -25419,7 +25475,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>83</v>
       </c>
@@ -25436,7 +25492,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -25453,7 +25509,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -25470,7 +25526,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="71" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
@@ -25487,7 +25543,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -25504,7 +25560,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>84</v>
       </c>
@@ -25521,7 +25577,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>85</v>
       </c>
@@ -25538,28 +25594,28 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D13" r:id="rId10"/>
-    <hyperlink ref="D14" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D17" r:id="rId13"/>
-    <hyperlink ref="D16" r:id="rId14"/>
-    <hyperlink ref="D18" r:id="rId15"/>
-    <hyperlink ref="D8" r:id="rId16"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="D18" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="D8" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -25567,7 +25623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -25578,29 +25634,29 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="377" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="379"/>
       <c r="F1" s="38">
         <f>COUNT(C18:C21)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -25617,7 +25673,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="58" t="s">
         <v>79</v>
       </c>
@@ -25634,7 +25690,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>275</v>
       </c>
@@ -25651,7 +25707,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>258</v>
       </c>
@@ -25668,7 +25724,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>19</v>
       </c>
@@ -25685,7 +25741,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>19</v>
       </c>
@@ -25702,7 +25758,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="54" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="54" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
         <v>255</v>
       </c>
@@ -25719,7 +25775,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>22</v>
       </c>
@@ -25736,7 +25792,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="54" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="54" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>85</v>
       </c>
@@ -25753,7 +25809,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>19</v>
       </c>
@@ -25770,7 +25826,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="43" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
         <v>38</v>
       </c>
@@ -25787,7 +25843,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>280</v>
       </c>
@@ -25804,7 +25860,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
         <v>3</v>
       </c>
@@ -25821,7 +25877,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>60</v>
       </c>
@@ -25838,7 +25894,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="42" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>244</v>
       </c>
@@ -25855,7 +25911,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
         <v>240</v>
       </c>
@@ -25872,7 +25928,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>165</v>
       </c>
@@ -25889,7 +25945,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>163</v>
       </c>
@@ -25906,7 +25962,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="43" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>159</v>
       </c>
@@ -25923,7 +25979,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -25940,7 +25996,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71" t="s">
         <v>280</v>
       </c>
@@ -25957,29 +26013,29 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1"/>
-    <hyperlink ref="D20" r:id="rId2"/>
-    <hyperlink ref="D19" r:id="rId3"/>
-    <hyperlink ref="D17" r:id="rId4"/>
-    <hyperlink ref="D16" r:id="rId5"/>
-    <hyperlink ref="D15" r:id="rId6"/>
-    <hyperlink ref="D14" r:id="rId7"/>
-    <hyperlink ref="D11" r:id="rId8"/>
-    <hyperlink ref="D8" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D10" r:id="rId12"/>
-    <hyperlink ref="D9" r:id="rId13"/>
-    <hyperlink ref="D4" r:id="rId14"/>
-    <hyperlink ref="D3" r:id="rId15"/>
-    <hyperlink ref="D13" r:id="rId16"/>
-    <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D15" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="D8" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="D6" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="D9" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="D4" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="D3" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="D13" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" fitToHeight="0" orientation="landscape" r:id="rId18"/>
@@ -25987,40 +26043,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="80.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="80.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="377" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="379"/>
       <c r="F1" s="38">
         <f>COUNT(C24:C27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -26037,7 +26093,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="199" t="s">
         <v>51</v>
       </c>
@@ -26054,7 +26110,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>65</v>
       </c>
@@ -26071,7 +26127,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>303</v>
       </c>
@@ -26088,7 +26144,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>304</v>
       </c>
@@ -26105,7 +26161,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="44" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>244</v>
       </c>
@@ -26122,7 +26178,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="54" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
         <v>35</v>
       </c>
@@ -26139,7 +26195,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="54" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="54" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>10</v>
       </c>
@@ -26156,7 +26212,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="54" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="54" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>321</v>
       </c>
@@ -26173,7 +26229,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>327</v>
       </c>
@@ -26190,7 +26246,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
         <v>321</v>
       </c>
@@ -26207,7 +26263,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="65" t="s">
         <v>10</v>
       </c>
@@ -26224,7 +26280,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
         <v>336</v>
       </c>
@@ -26241,7 +26297,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>340</v>
       </c>
@@ -26258,7 +26314,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
         <v>68</v>
       </c>
@@ -26275,7 +26331,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A17" s="221" t="s">
         <v>348</v>
       </c>
@@ -26292,7 +26348,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="56" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>353</v>
       </c>
@@ -26309,7 +26365,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>19</v>
       </c>
@@ -26326,7 +26382,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>19</v>
       </c>
@@ -26343,7 +26399,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A21" s="65" t="s">
         <v>54</v>
       </c>
@@ -26360,7 +26416,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="84" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>368</v>
       </c>
@@ -26377,7 +26433,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="244" t="s">
         <v>84</v>
       </c>
@@ -26394,61 +26450,61 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="283"/>
       <c r="D24" s="24"/>
       <c r="E24" s="40"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="69"/>
       <c r="D25" s="10"/>
       <c r="E25" s="49"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="69"/>
       <c r="D26" s="10"/>
       <c r="E26" s="49"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="69"/>
       <c r="D27" s="10"/>
       <c r="E27" s="49"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="188"/>
       <c r="B28" s="188"/>
       <c r="C28" s="191"/>
       <c r="D28" s="192"/>
       <c r="E28" s="193"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D12" r:id="rId5"/>
-    <hyperlink ref="D13" r:id="rId6"/>
-    <hyperlink ref="D14" r:id="rId7"/>
-    <hyperlink ref="D15" r:id="rId8"/>
-    <hyperlink ref="D16" r:id="rId9"/>
-    <hyperlink ref="D17" r:id="rId10"/>
-    <hyperlink ref="D18" r:id="rId11"/>
-    <hyperlink ref="D21" r:id="rId12"/>
-    <hyperlink ref="D19" r:id="rId13"/>
-    <hyperlink ref="D20" r:id="rId14"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D13" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" fitToHeight="0" orientation="landscape" r:id="rId15"/>
@@ -26456,40 +26512,40 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="68" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="80.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="80.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="377" t="s">
         <v>382</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="294"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="379"/>
       <c r="F1" s="38">
         <f>COUNT(C21:C24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -26506,14 +26562,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="300" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="292" customFormat="1" ht="43" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
         <v>383</v>
       </c>
       <c r="B3" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="299">
+      <c r="C3" s="291">
         <v>43390</v>
       </c>
       <c r="D3" s="194" t="s">
@@ -26522,32 +26578,35 @@
       <c r="E3" s="60" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="44" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="F3" s="292" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
         <v>340</v>
       </c>
       <c r="B4" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="299">
+      <c r="C4" s="291">
         <v>43403</v>
       </c>
-      <c r="D4" s="312" t="s">
+      <c r="D4" s="304" t="s">
         <v>389</v>
       </c>
       <c r="E4" s="189" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="300" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="292" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>384</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="C5" s="299">
+      <c r="C5" s="291">
         <v>43404</v>
       </c>
       <c r="D5" s="48" t="s">
@@ -26557,14 +26616,14 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="44" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="C6" s="299">
+      <c r="C6" s="291">
         <v>43418</v>
       </c>
       <c r="D6" s="56" t="s">
@@ -26574,14 +26633,14 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="44" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="44" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>393</v>
       </c>
       <c r="B7" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="299">
+      <c r="C7" s="291">
         <v>43494</v>
       </c>
       <c r="D7" s="52" t="s">
@@ -26591,14 +26650,14 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="C8" s="299">
+      <c r="C8" s="291">
         <v>43510</v>
       </c>
       <c r="D8" s="56" t="s">
@@ -26608,31 +26667,31 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B9" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="C9" s="299">
+      <c r="C9" s="291">
         <v>43537</v>
       </c>
-      <c r="D9" s="301" t="s">
+      <c r="D9" s="293" t="s">
         <v>407</v>
       </c>
       <c r="E9" s="49" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="45" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>404</v>
       </c>
       <c r="B10" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="C10" s="299">
+      <c r="C10" s="291">
         <v>43543</v>
       </c>
       <c r="D10" s="63" t="s">
@@ -26642,14 +26701,14 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="44" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="44" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C11" s="313">
+      <c r="C11" s="305">
         <v>43573</v>
       </c>
       <c r="D11" s="57" t="s">
@@ -26659,14 +26718,14 @@
         <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="44" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="44" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51" t="s">
         <v>244</v>
       </c>
       <c r="B12" s="51" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="313">
+      <c r="C12" s="305">
         <v>43577</v>
       </c>
       <c r="D12" s="57" t="s">
@@ -26676,14 +26735,14 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="44" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="44" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
         <v>159</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="C13" s="299">
+      <c r="C13" s="291">
         <v>43608</v>
       </c>
       <c r="D13" s="63" t="s">
@@ -26693,14 +26752,14 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="44" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="44" customFormat="1" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="47" t="s">
         <v>428</v>
       </c>
       <c r="B14" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="C14" s="299">
+      <c r="C14" s="291">
         <v>43613</v>
       </c>
       <c r="D14" s="63" t="s">
@@ -26710,14 +26769,14 @@
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="44" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A15" s="47" t="s">
         <v>340</v>
       </c>
       <c r="B15" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="C15" s="299">
+      <c r="C15" s="291">
         <v>43663</v>
       </c>
       <c r="D15" s="201" t="s">
@@ -26727,14 +26786,14 @@
         <v>430</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="44" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="44" customFormat="1" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="47" t="s">
         <v>421</v>
       </c>
       <c r="B16" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="C16" s="299">
+      <c r="C16" s="291">
         <v>43664</v>
       </c>
       <c r="D16" s="201" t="s">
@@ -26744,7 +26803,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>35</v>
       </c>
@@ -26754,14 +26813,14 @@
       <c r="C17" s="285">
         <v>43684</v>
       </c>
-      <c r="D17" s="297" t="s">
+      <c r="D17" s="289" t="s">
         <v>426</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
         <v>22</v>
       </c>
@@ -26771,49 +26830,49 @@
       <c r="C18" s="285">
         <v>43682</v>
       </c>
-      <c r="D18" s="297" t="s">
+      <c r="D18" s="289" t="s">
         <v>427</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="47"/>
       <c r="C19" s="69"/>
       <c r="D19" s="10"/>
       <c r="E19" s="49"/>
     </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="244"/>
       <c r="B20" s="12"/>
       <c r="C20" s="191"/>
       <c r="D20" s="243"/>
       <c r="E20" s="241"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="283"/>
       <c r="D21" s="24"/>
       <c r="E21" s="40"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="69"/>
       <c r="D22" s="10"/>
       <c r="E22" s="49"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="69"/>
       <c r="D23" s="10"/>
       <c r="E23" s="49"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="69"/>
@@ -26825,22 +26884,22 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D6" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D3" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D12" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D16" r:id="rId14"/>
-    <hyperlink ref="D17" r:id="rId15"/>
-    <hyperlink ref="D18" r:id="rId16"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="D15" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="81" fitToHeight="0" orientation="landscape" r:id="rId17"/>
@@ -26848,34 +26907,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -26888,11 +26947,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
         <v>29</v>
       </c>
@@ -26909,7 +26968,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="182" t="s">
         <v>29</v>
       </c>
@@ -26926,7 +26985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="182" t="s">
         <v>163</v>
       </c>
@@ -26943,7 +27002,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="27" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="202" t="s">
         <v>244</v>
       </c>
@@ -26960,7 +27019,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="119" t="s">
         <v>340</v>
       </c>
@@ -26977,24 +27036,24 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="27" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="314" t="s">
+    <row r="8" spans="1:5" ht="30" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="306" t="s">
         <v>340</v>
       </c>
       <c r="B8" s="202" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="314" t="s">
+      <c r="C8" s="306" t="s">
         <v>386</v>
       </c>
-      <c r="D8" s="315" t="s">
+      <c r="D8" s="307" t="s">
         <v>389</v>
       </c>
-      <c r="E8" s="316" t="s">
+      <c r="E8" s="308" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>393</v>
       </c>
@@ -27011,24 +27070,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="317" t="s">
+    <row r="10" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="309" t="s">
         <v>340</v>
       </c>
       <c r="B10" s="248" t="s">
         <v>433</v>
       </c>
-      <c r="C10" s="317" t="s">
+      <c r="C10" s="309" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="318" t="s">
+      <c r="D10" s="310" t="s">
         <v>418</v>
       </c>
       <c r="E10" s="250" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A3:E5">
     <sortCondition ref="B3:B5"/>
@@ -27037,13 +27096,13 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -27051,34 +27110,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -27091,11 +27150,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="178" t="s">
         <v>3</v>
       </c>
@@ -27112,7 +27171,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="117" t="s">
         <v>32</v>
       </c>
@@ -27129,7 +27188,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -27146,7 +27205,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>68</v>
       </c>
@@ -27163,7 +27222,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="119" t="s">
         <v>54</v>
       </c>
@@ -27180,7 +27239,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>51</v>
       </c>
@@ -27197,7 +27256,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>38</v>
       </c>
@@ -27214,7 +27273,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="182" t="s">
         <v>159</v>
       </c>
@@ -27231,7 +27290,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="245" t="s">
         <v>19</v>
       </c>
@@ -27248,7 +27307,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>374</v>
       </c>
@@ -27265,7 +27324,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="248" t="s">
         <v>84</v>
       </c>
@@ -27282,41 +27341,41 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="39" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="314" t="s">
+    <row r="14" spans="1:5" ht="29" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="306" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="202" t="s">
         <v>433</v>
       </c>
-      <c r="C14" s="314" t="s">
+      <c r="C14" s="306" t="s">
         <v>415</v>
       </c>
-      <c r="D14" s="319" t="s">
+      <c r="D14" s="311" t="s">
         <v>416</v>
       </c>
-      <c r="E14" s="320" t="s">
+      <c r="E14" s="312" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="317" t="s">
+    <row r="15" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="309" t="s">
         <v>428</v>
       </c>
       <c r="B15" s="248" t="s">
         <v>433</v>
       </c>
-      <c r="C15" s="317" t="s">
+      <c r="C15" s="309" t="s">
         <v>419</v>
       </c>
-      <c r="D15" s="321" t="s">
+      <c r="D15" s="313" t="s">
         <v>420</v>
       </c>
       <c r="E15" s="250" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A3:E10">
     <sortCondition ref="B3:B10"/>
@@ -27325,17 +27384,17 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7"/>
-    <hyperlink ref="D7" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D14" r:id="rId10"/>
-    <hyperlink ref="D15" r:id="rId11"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="D14" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>
@@ -27343,34 +27402,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="86.28515625" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="2" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="86.33203125" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -27383,11 +27442,11 @@
       <c r="D2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>84</v>
       </c>
@@ -27404,7 +27463,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
         <v>85</v>
       </c>
@@ -27421,7 +27480,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="251" t="s">
         <v>79</v>
       </c>
@@ -27438,7 +27497,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="258" t="s">
         <v>374</v>
       </c>
@@ -27455,126 +27514,126 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="255"/>
       <c r="B7" s="255"/>
       <c r="C7" s="255"/>
       <c r="D7" s="255"/>
       <c r="E7" s="255"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="205"/>
       <c r="B8" s="205"/>
       <c r="C8" s="205"/>
       <c r="D8" s="205"/>
       <c r="E8" s="205"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="205"/>
       <c r="B9" s="205"/>
       <c r="C9" s="205"/>
       <c r="D9" s="205"/>
       <c r="E9" s="205"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="205"/>
       <c r="B10" s="205"/>
       <c r="C10" s="205"/>
       <c r="D10" s="205"/>
       <c r="E10" s="205"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="205"/>
       <c r="B11" s="205"/>
       <c r="C11" s="205"/>
       <c r="D11" s="205"/>
       <c r="E11" s="205"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="205"/>
       <c r="B12" s="205"/>
       <c r="C12" s="205"/>
       <c r="D12" s="205"/>
       <c r="E12" s="205"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="205"/>
       <c r="B13" s="205"/>
       <c r="C13" s="205"/>
       <c r="D13" s="205"/>
       <c r="E13" s="205"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="205"/>
       <c r="B14" s="205"/>
       <c r="C14" s="205"/>
       <c r="D14" s="205"/>
       <c r="E14" s="205"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="205"/>
       <c r="B15" s="205"/>
       <c r="C15" s="205"/>
       <c r="D15" s="205"/>
       <c r="E15" s="205"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="205"/>
       <c r="B16" s="205"/>
       <c r="C16" s="205"/>
       <c r="D16" s="205"/>
       <c r="E16" s="205"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="205"/>
       <c r="B17" s="205"/>
       <c r="C17" s="205"/>
       <c r="D17" s="205"/>
       <c r="E17" s="205"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="205"/>
       <c r="B18" s="205"/>
       <c r="C18" s="205"/>
       <c r="D18" s="205"/>
       <c r="E18" s="205"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="205"/>
       <c r="B19" s="205"/>
       <c r="C19" s="205"/>
       <c r="D19" s="205"/>
       <c r="E19" s="205"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="205"/>
       <c r="B20" s="205"/>
       <c r="C20" s="205"/>
       <c r="D20" s="205"/>
       <c r="E20" s="205"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="205"/>
       <c r="B21" s="205"/>
       <c r="C21" s="205"/>
       <c r="D21" s="205"/>
       <c r="E21" s="205"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="205"/>
       <c r="B22" s="205"/>
       <c r="C22" s="205"/>
       <c r="D22" s="205"/>
       <c r="E22" s="205"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="205"/>
       <c r="B23" s="205"/>
       <c r="C23" s="205"/>
       <c r="D23" s="205"/>
       <c r="E23" s="205"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="205"/>
       <c r="B24" s="205"/>
       <c r="C24" s="205"/>
@@ -27586,9 +27645,9 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
